--- a/biology/Mycologie/Amanitacées/Amanitacées.xlsx
+++ b/biology/Mycologie/Amanitacées/Amanitacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanitac%C3%A9es</t>
+          <t>Amanitacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanitacées
 Les Amanitaceae (en français Amanitacées) sont une famille de champignons basidiomycètes du clade II Pluteoïde de l'ordre des Agaricales. Dans le genre le plus important, l'espèce la plus connue est probablement Amanita muscaria, mais aussi Amanita phalloides qui passe pour une espèce des plus toxiques, quasi toujours mortelle. Le sporophore des amanitacées est lamellé, généralement ovoïde émergeant, ensuite convexe immature et enfin plus ou moins étalé. Les sporophores portent souvent, mais pas tous, une volve et/ou un anneau, plus ou moins tenaces. Les lames sont, sauf exception, blanches, rarement jaunes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanitac%C3%A9es</t>
+          <t>Amanitacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le genre Amanita
-Aucune caractéristique macroscopique n'est à elle seule déterminante de ce genre[1]. Ce sont des espèces dont les sporophores sont lamellés, généralement ovoïdes puis convexes et enfin plus ou moins étalés. Ils portent souvent, mais pas tous, une volve et/ou un anneau, plus ou moins tenaces. Les lames sont, sauf exception, blanches ainsi que la sporée. Le genre est divisé en deux sous-genres et sept sections.
-Le genre Amarrendia
-Les espèces du genre Amarrendia sont hypogées. À l'heure actuelle, ce genre n'est connu seulement qu'en Australie. Les travaux moléculaires ont exclu plusieurs espèces hypogées attribuées à l'origine au genre Amarrendia et morphologiquement semblables. Elles n'appartiennent plus aux Amanitaceae.
-Le genre Limacella
-Les espèces du genre Limacella sont fortement différenciées du genre Amanita par leur mode de développement. Un voile membraneux partiel est présent chez certaines espèces.
-Le genre Torrendia
-Les espèces du genre Torrendia sont originaires des régions méditerranéennes et d'Australie. Le genre Torrendia semble avoir des ancêtres communs avec les espèces de la section Caesareae du genre Amanita[2]. C'est un genre sécotioïde.
+          <t>Le genre Amanita</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune caractéristique macroscopique n'est à elle seule déterminante de ce genre. Ce sont des espèces dont les sporophores sont lamellés, généralement ovoïdes puis convexes et enfin plus ou moins étalés. Ils portent souvent, mais pas tous, une volve et/ou un anneau, plus ou moins tenaces. Les lames sont, sauf exception, blanches ainsi que la sporée. Le genre est divisé en deux sous-genres et sept sections.
 </t>
         </is>
       </c>
@@ -532,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amanitac%C3%A9es</t>
+          <t>Amanitacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +558,133 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le genre Amarrendia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Amarrendia sont hypogées. À l'heure actuelle, ce genre n'est connu seulement qu'en Australie. Les travaux moléculaires ont exclu plusieurs espèces hypogées attribuées à l'origine au genre Amarrendia et morphologiquement semblables. Elles n'appartiennent plus aux Amanitaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amanitacées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanitac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le genre Limacella</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Limacella sont fortement différenciées du genre Amanita par leur mode de développement. Un voile membraneux partiel est présent chez certaines espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amanitacées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanitac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le genre Torrendia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Torrendia sont originaires des régions méditerranéennes et d'Australie. Le genre Torrendia semble avoir des ancêtres communs avec les espèces de la section Caesareae du genre Amanita. C'est un genre sécotioïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amanitacées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanitac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Classification phylogénétique
-Situation des Amanitaceae dans le Clade  II Pluteoïde
-Depuis 2006 le clade des Agaricales est divisé en 6 clades :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Situation des Amanitaceae dans le Clade  II Pluteoïde</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis 2006 le clade des Agaricales est divisé en 6 clades :
 Clade Athéloïde
 Boletales, clade des Bolets
 Agaricales, clade des Euagarics
@@ -573,10 +703,43 @@
 Amanita brunnescens
 Lepidella
 Pleurotaceae
-Clade I Plicaturopsidoïde
-Classification classique
-Liste des genres de la famille des Amanitaceae
-Cette famille comprend les cinq genres suivants (y incluant les sous-genres et espèces types pour les différentes espèces d'amanites)[3]
+Clade I Plicaturopsidoïde</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amanitacées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanitac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres de la famille des Amanitaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette famille comprend les cinq genres suivants (y incluant les sous-genres et espèces types pour les différentes espèces d'amanites)
 Amanitaceae
 Amanita (genre)
 Amanita  (sous-genre)
@@ -613,8 +776,43 @@
 Torrendia deformans
 Torrendia grandis
 Torrendia inculta
-Torrendia pulchella
-Liste des genres
+Torrendia pulchella</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amanitacées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanitac%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Amanita muscaria
 			Aspidella aureofloccosa
 			Limacella guttata
